--- a/Materials/Experiment1ColorCoordinates.xlsx
+++ b/Materials/Experiment1ColorCoordinates.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melan\Dropbox\Research\Manuscripts\OriginalAliens-Manuscript\materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melan\Dropbox\Research\Manuscripts\InProgress\OriginalAliens-Manuscript\Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA1B73-5D4C-452E-87FB-7E139D521F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251F101-D2DF-4506-9539-45DA1DD8B4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66324FFA-F64E-43C8-AB33-CA27487F1F48}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{66324FFA-F64E-43C8-AB33-CA27487F1F48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -103,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,12 +141,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
@@ -151,6 +149,18 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -163,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -232,11 +242,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -250,9 +415,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -261,9 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -274,8 +433,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,18 +767,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544CED6D-2C04-4425-8E75-A2E0C1440FBB}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="8" width="8.88671875" style="15"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -616,801 +797,801 @@
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0.313</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="17">
         <v>22.93</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="22">
         <v>51.573</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="18">
         <v>62.234000000000002</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="23">
         <v>32.198</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>0.40699999999999997</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="17">
         <v>49.95</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="22">
         <v>71.596000000000004</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="18">
         <v>31.577999999999999</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="23">
         <v>16.68</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>0.441</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0.32400000000000001</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="17">
         <v>22.93</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="22">
         <v>51.573</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="18">
         <v>33.58</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="23">
         <v>16.981000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0.311</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="17">
         <v>7.6</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="22">
         <v>30.763999999999999</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="18">
         <v>37.017000000000003</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="23">
         <v>16.39</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0.41199999999999998</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="17">
         <v>49.95</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="22">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G7" s="18">
         <v>31.215</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="23">
         <v>69.647000000000006</v>
       </c>
-      <c r="H7" s="11">
-        <v>76.322000000000003</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>0.39900000000000002</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0.36599999999999999</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="17">
         <v>68.56</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="22">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="G8" s="18">
         <v>15.000999999999999</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="23">
         <v>30.172000000000001</v>
       </c>
-      <c r="H8" s="11">
-        <v>33.695999999999998</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>0.42299999999999999</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0.375</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="17">
         <v>34.86</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="22">
+        <v>61.7</v>
+      </c>
+      <c r="G9" s="18">
         <v>15.94</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="23">
         <v>30.33</v>
       </c>
-      <c r="H9" s="11">
-        <v>34.262999999999998</v>
-      </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0.48099999999999998</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0.38800000000000001</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="17">
         <v>10.76</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="22">
+        <v>36.51</v>
+      </c>
+      <c r="G10" s="18">
         <v>18.353999999999999</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="23">
         <v>30.597000000000001</v>
       </c>
-      <c r="H10" s="11">
-        <v>35.679000000000002</v>
-      </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>0.44600000000000001</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="17">
         <v>91.25</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="22">
+        <v>91.08</v>
+      </c>
+      <c r="G11" s="18">
         <v>-5.7506000000000004</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="23">
         <v>86.677999999999997</v>
       </c>
-      <c r="H11" s="11">
-        <v>86.867999999999995</v>
-      </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>0.39100000000000001</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.41299999999999998</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="17">
         <v>91.25</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="22">
+        <v>91.08</v>
+      </c>
+      <c r="G12" s="18">
         <v>-5.4588000000000001</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H12" s="23">
         <v>47.704999999999998</v>
       </c>
-      <c r="H12" s="11">
-        <v>48.015999999999998</v>
-      </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>0.40699999999999997</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.42599999999999999</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="17">
         <v>49.95</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="22">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G13" s="18">
         <v>-3.3302</v>
       </c>
-      <c r="G13" s="11">
+      <c r="H13" s="23">
         <v>45.936</v>
       </c>
-      <c r="H13" s="11">
-        <v>46.057000000000002</v>
-      </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>0.437</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.45</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="17">
         <v>18.43</v>
       </c>
-      <c r="F14" s="11">
-        <v>-0.92510000000000003</v>
-      </c>
-      <c r="G14" s="11">
-        <v>43.347000000000001</v>
-      </c>
-      <c r="H14" s="11">
-        <v>43.356999999999999</v>
+      <c r="F14" s="22">
+        <v>46.83</v>
+      </c>
+      <c r="G14" s="18">
+        <v>-0.92513000000000001</v>
+      </c>
+      <c r="H14" s="23">
+        <v>43.35</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>0.38700000000000001</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>0.504</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="17">
         <v>68.56</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="22">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="G15" s="18">
         <v>-32.918999999999997</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="23">
         <v>72.055000000000007</v>
       </c>
-      <c r="H15" s="11">
-        <v>79.218000000000004</v>
-      </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>0.35699999999999998</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>0.42</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="17">
         <v>79.900000000000006</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="22">
+        <v>86.44</v>
+      </c>
+      <c r="G16" s="18">
         <v>-20.62</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H16" s="23">
         <v>40.643999999999998</v>
       </c>
-      <c r="H16" s="11">
-        <v>45.576000000000001</v>
-      </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>0.36</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>0.436</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="17">
         <v>42.4</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="22">
+        <v>66.94</v>
+      </c>
+      <c r="G17" s="18">
         <v>-19.975000000000001</v>
       </c>
-      <c r="G17" s="11">
+      <c r="H17" s="23">
         <v>37.450000000000003</v>
       </c>
-      <c r="H17" s="11">
-        <v>42.444000000000003</v>
-      </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>0.36899999999999999</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>0.47299999999999998</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="17">
         <v>18.43</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="22">
+        <v>46.83</v>
+      </c>
+      <c r="G18" s="18">
         <v>-19.922999999999998</v>
       </c>
-      <c r="G18" s="11">
+      <c r="H18" s="23">
         <v>36.863</v>
       </c>
-      <c r="H18" s="11">
-        <v>41.902999999999999</v>
-      </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>0.254</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>0.44900000000000001</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="17">
         <v>42.4</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="22">
+        <v>66.94</v>
+      </c>
+      <c r="G19" s="18">
         <v>-59.948</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H19" s="23">
         <v>24.536999999999999</v>
       </c>
-      <c r="H19" s="11">
-        <v>64.775000000000006</v>
-      </c>
     </row>
     <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>0.38100000000000001</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="17">
         <v>63.9</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="22">
+        <v>79.09</v>
+      </c>
+      <c r="G20" s="18">
         <v>-34.125999999999998</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="23">
         <v>15.212</v>
       </c>
-      <c r="H20" s="11">
-        <v>37.363</v>
-      </c>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>0.28100000000000003</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>0.39200000000000002</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="17">
         <v>34.86</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="22">
+        <v>61.7</v>
+      </c>
+      <c r="G21" s="18">
         <v>-33.267000000000003</v>
       </c>
-      <c r="G21" s="11">
+      <c r="H21" s="23">
         <v>14.065</v>
       </c>
-      <c r="H21" s="11">
-        <v>36.118000000000002</v>
-      </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>0.26100000000000001</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>0.41899999999999998</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="17">
         <v>12.34</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="22">
+        <v>38.96</v>
+      </c>
+      <c r="G22" s="18">
         <v>-33.292000000000002</v>
       </c>
-      <c r="G22" s="11">
+      <c r="H22" s="23">
         <v>12.407999999999999</v>
       </c>
-      <c r="H22" s="11">
-        <v>35.529000000000003</v>
-      </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>0.33500000000000002</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="17">
         <v>49.95</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="22">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G23" s="18">
         <v>-44.314999999999998</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="23">
         <v>-6.1067999999999998</v>
       </c>
-      <c r="H23" s="11">
-        <v>44.734000000000002</v>
-      </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>0.33</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="17">
         <v>68.56</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="22">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="G24" s="18">
         <v>-26.117999999999999</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="23">
         <v>-2.7294</v>
       </c>
-      <c r="H24" s="11">
-        <v>26.26</v>
-      </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>0.254</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>0.32800000000000001</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="17">
         <v>34.86</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="22">
+        <v>61.7</v>
+      </c>
+      <c r="G25" s="18">
         <v>-25.402000000000001</v>
       </c>
-      <c r="G25" s="11">
+      <c r="H25" s="23">
         <v>-4.1265999999999998</v>
       </c>
-      <c r="H25" s="11">
-        <v>25.734999999999999</v>
-      </c>
     </row>
     <row r="26" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>0.32400000000000001</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="17">
         <v>13.92</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="22">
+        <v>41.22</v>
+      </c>
+      <c r="G26" s="18">
         <v>-24.26</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="23">
         <v>-5.4518000000000004</v>
       </c>
-      <c r="H26" s="11">
-        <v>24.864999999999998</v>
-      </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>0.2</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>0.23</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="17">
         <v>34.86</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="22">
+        <v>61.7</v>
+      </c>
+      <c r="G27" s="18">
         <v>-13.209</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="23">
         <v>-38.399000000000001</v>
       </c>
-      <c r="H27" s="11">
-        <v>40.607999999999997</v>
-      </c>
     </row>
     <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>0.255</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>0.27800000000000002</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="17">
         <v>59.25</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="22">
+        <v>76.73</v>
+      </c>
+      <c r="G28" s="18">
         <v>-8.8675999999999995</v>
       </c>
-      <c r="G28" s="11">
+      <c r="H28" s="23">
         <v>-20.82</v>
       </c>
-      <c r="H28" s="11">
-        <v>22.63</v>
-      </c>
     </row>
     <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="17">
         <v>28.9</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="22">
+        <v>56.99</v>
+      </c>
+      <c r="G29" s="18">
         <v>-7.8583999999999996</v>
       </c>
-      <c r="G29" s="11">
+      <c r="H29" s="23">
         <v>-21.411000000000001</v>
       </c>
-      <c r="H29" s="11">
-        <v>22.806999999999999</v>
-      </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>0.21199999999999999</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="17">
         <v>10.76</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="22">
+        <v>36.51</v>
+      </c>
+      <c r="G30" s="18">
         <v>-6.5571999999999999</v>
       </c>
-      <c r="G30" s="11">
+      <c r="H30" s="23">
         <v>-23.727</v>
       </c>
-      <c r="H30" s="11">
-        <v>24.616</v>
-      </c>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>0.27200000000000002</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>0.156</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="17">
         <v>18.43</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="22">
+        <v>46.83</v>
+      </c>
+      <c r="G31" s="18">
         <v>57.212000000000003</v>
       </c>
-      <c r="G31" s="11">
+      <c r="H31" s="23">
         <v>-50.49</v>
       </c>
-      <c r="H31" s="11">
-        <v>76.305000000000007</v>
-      </c>
     </row>
     <row r="32" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="17">
         <v>49.95</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="22">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G32" s="18">
         <v>26.027999999999999</v>
       </c>
-      <c r="G32" s="11">
+      <c r="H32" s="23">
         <v>-27.872</v>
       </c>
-      <c r="H32" s="11">
-        <v>38.134999999999998</v>
-      </c>
     </row>
     <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>0.28699999999999998</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>0.222</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="17">
         <v>22.93</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="22">
+        <v>51.57</v>
+      </c>
+      <c r="G33" s="18">
         <v>28.052</v>
       </c>
-      <c r="G33" s="11">
+      <c r="H33" s="23">
         <v>-27.815999999999999</v>
       </c>
-      <c r="H33" s="11">
-        <v>39.505000000000003</v>
-      </c>
     </row>
     <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>0.18099999999999999</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="17">
         <v>7.6</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="24">
+        <v>30.76</v>
+      </c>
+      <c r="G34" s="25">
         <v>33.037999999999997</v>
       </c>
-      <c r="G34" s="11">
+      <c r="H34" s="26">
         <v>-29.66</v>
-      </c>
-      <c r="H34" s="11">
-        <v>44.399000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
